--- a/data/info/match_info_jogo4.xlsx
+++ b/data/info/match_info_jogo4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coletas_3x3\rastreamento_3x3_Dvideow\jogo4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\data\bruno\projetos\3x3\tracking3x3\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F97C0-F8A6-44A1-A072-453046C8AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>jogo_num</t>
   </si>
@@ -127,12 +126,42 @@
   </si>
   <si>
     <t>atleta_fora_fim</t>
+  </si>
+  <si>
+    <t>atleta_id</t>
+  </si>
+  <si>
+    <t>atleta_info</t>
+  </si>
+  <si>
+    <t>t1_tenis_branco</t>
+  </si>
+  <si>
+    <t>t1_tenis_rosa</t>
+  </si>
+  <si>
+    <t>t1_tenis_verde</t>
+  </si>
+  <si>
+    <t>t1_tenis_laranja</t>
+  </si>
+  <si>
+    <t>t2_meia_branca</t>
+  </si>
+  <si>
+    <t>t2_tenis_preto_tornozelo_branco</t>
+  </si>
+  <si>
+    <t>t2_meia_branca_preta</t>
+  </si>
+  <si>
+    <t>t2_tenis_vermelho_cinza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,17 +495,19 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,34 +527,40 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -542,575 +579,623 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1309</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1977</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>2536</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>3209</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1309</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>7300</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1379</v>
       </c>
       <c r="C3">
         <v>42562</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3209</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>3640</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>3640</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>4471</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1309</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5277</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>4471</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>5720</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>5890</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>6584</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>5277</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>7175</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>6584</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>7938</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>7938</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>8798</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>7175</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>10145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
         <v>8847</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>11205</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>11352</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>11840</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>7300</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>10145</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="K7">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="M7">
         <v>11886</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>12390</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>12450</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>12865</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>10145</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>14470</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
         <v>12950</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>13538</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>13625</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>15320</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>15</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>10145</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>14584</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="K9">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9">
         <v>15320</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>15778</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>16810</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>17500</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>13</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>14470</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>17980</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="K10">
+      <c r="M10">
         <v>17500</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>18701</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>18725</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>19726</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>18</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>14584</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>17980</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>19726</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>19840</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>19840</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>20053</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>11</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>17980</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>24185</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>20180</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>20870</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>20870</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>21525</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>17</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>17980</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>22662</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>21605</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>22053</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>22089</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>22316</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>16</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>22662</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>28950</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M14">
         <v>23276</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>23409</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>23511</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>23815</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>12</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>24185</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>28617</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M15">
         <v>24786</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>25371</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>25387</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>25775</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>28617</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>32825</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16">
         <v>25775</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>26310</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>26310</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>26835</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>15</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>28950</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>31089</v>
       </c>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K17">
+    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M17">
         <v>26835</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>27244</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>27244</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>27787</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>18</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>31089</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>32796</v>
       </c>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K18">
+    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M18">
         <v>27787</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>29430</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>29430</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>29624</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>17</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>32796</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>35124</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K19">
+    <row r="19" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M19">
         <v>29624</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>30655</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>31470</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>31777</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>11</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>32825</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>42562</v>
       </c>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K20">
+    <row r="20" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M20">
         <v>31822</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>32337</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>33548</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>34344</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>16</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>35124</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>38934</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K21">
+    <row r="21" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M21">
         <v>34344</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>34853</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>36725</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>37914</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>15</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>38934</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>42562</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K22">
+    <row r="22" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M22">
         <v>37914</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>38626</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>39851</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>40186</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K23">
+    <row r="23" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M23">
         <v>40417</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>41100</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>41100</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>41414</v>
       </c>
     </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K24">
+    <row r="24" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M24">
         <v>41414</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>41649</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>41649</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>41891</v>
       </c>
     </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K25">
+    <row r="25" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M25">
         <v>41891</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>41985</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>41985</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>42115</v>
       </c>
     </row>
